--- a/listen.xlsx
+++ b/listen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
   <si>
     <t>fundamentel</t>
   </si>
@@ -569,6 +569,144 @@
   </si>
   <si>
     <t>出价者 投标者</t>
+  </si>
+  <si>
+    <t>dispersal</t>
+  </si>
+  <si>
+    <t>散布 传播</t>
+  </si>
+  <si>
+    <t>germinate</t>
+  </si>
+  <si>
+    <t>发芽 生长</t>
+  </si>
+  <si>
+    <t>remnant</t>
+  </si>
+  <si>
+    <t>剩余</t>
+  </si>
+  <si>
+    <t>dwindle</t>
+  </si>
+  <si>
+    <t>减少 缩小</t>
+  </si>
+  <si>
+    <t>retreat</t>
+  </si>
+  <si>
+    <t>撤退</t>
+  </si>
+  <si>
+    <t>utensil</t>
+  </si>
+  <si>
+    <t>用具 器皿</t>
+  </si>
+  <si>
+    <t>peel</t>
+  </si>
+  <si>
+    <t>剥，皮</t>
+  </si>
+  <si>
+    <t>pliable</t>
+  </si>
+  <si>
+    <t>柔韧的</t>
+  </si>
+  <si>
+    <t>canoe</t>
+  </si>
+  <si>
+    <t>独木舟</t>
+  </si>
+  <si>
+    <t>repel</t>
+  </si>
+  <si>
+    <t>抵制</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>坚定的 强健的</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>密封 盖章</t>
+  </si>
+  <si>
+    <t>portage</t>
+  </si>
+  <si>
+    <t>运输 陆地运输</t>
+  </si>
+  <si>
+    <t>lodge</t>
+  </si>
+  <si>
+    <t>提出 存放 草屋</t>
+  </si>
+  <si>
+    <t>brittle</t>
+  </si>
+  <si>
+    <t>易碎的</t>
+  </si>
+  <si>
+    <t>shatter</t>
+  </si>
+  <si>
+    <t>破碎</t>
+  </si>
+  <si>
+    <t>distort</t>
+  </si>
+  <si>
+    <t>扭曲 变形</t>
+  </si>
+  <si>
+    <t>ooze</t>
+  </si>
+  <si>
+    <t>缓慢消失</t>
+  </si>
+  <si>
+    <t>realign</t>
+  </si>
+  <si>
+    <t>重新排列</t>
+  </si>
+  <si>
+    <t>surge</t>
+  </si>
+  <si>
+    <t>大浪 汹涌</t>
+  </si>
+  <si>
+    <t>recap</t>
+  </si>
+  <si>
+    <t>重述</t>
+  </si>
+  <si>
+    <t>camouflage</t>
+  </si>
+  <si>
+    <t>伪装</t>
+  </si>
+  <si>
+    <t>vulnerable</t>
+  </si>
+  <si>
+    <t>脆弱的</t>
   </si>
 </sst>
 </file>
@@ -576,9 +714,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -605,7 +743,45 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -620,49 +796,18 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -681,9 +826,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,36 +865,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,7 +873,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -750,25 +888,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +1020,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -792,145 +1032,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,15 +1087,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -986,6 +1115,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -997,6 +1150,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1015,187 +1179,158 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1520,10 +1655,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:C93"/>
+  <dimension ref="B1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="22" outlineLevelCol="2"/>
@@ -1533,7 +1668,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
@@ -1541,7 +1676,7 @@
       </c>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C2" t="s">
@@ -1549,7 +1684,7 @@
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -1557,7 +1692,7 @@
       </c>
     </row>
     <row r="4" spans="2:3">
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
@@ -1565,7 +1700,7 @@
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
@@ -1573,7 +1708,7 @@
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
@@ -1581,7 +1716,7 @@
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C7" t="s">
@@ -1589,7 +1724,7 @@
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
@@ -1597,7 +1732,7 @@
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
@@ -1605,7 +1740,7 @@
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" t="s">
@@ -1613,7 +1748,7 @@
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C11" t="s">
@@ -1621,7 +1756,7 @@
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C12" t="s">
@@ -1629,7 +1764,7 @@
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="C13" t="s">
@@ -1637,7 +1772,7 @@
       </c>
     </row>
     <row r="14" spans="2:3">
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C14" t="s">
@@ -1645,7 +1780,7 @@
       </c>
     </row>
     <row r="15" spans="2:3">
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="C15" t="s">
@@ -1653,7 +1788,7 @@
       </c>
     </row>
     <row r="16" spans="2:3">
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C16" t="s">
@@ -1661,7 +1796,7 @@
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
       <c r="C17" t="s">
@@ -1669,7 +1804,7 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
       <c r="C18" t="s">
@@ -1677,7 +1812,7 @@
       </c>
     </row>
     <row r="19" spans="2:3">
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
       <c r="C19" t="s">
@@ -1685,7 +1820,7 @@
       </c>
     </row>
     <row r="20" spans="2:3">
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C20" t="s">
@@ -1693,7 +1828,7 @@
       </c>
     </row>
     <row r="21" spans="2:3">
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C21" t="s">
@@ -1701,7 +1836,7 @@
       </c>
     </row>
     <row r="22" spans="2:3">
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="C22" t="s">
@@ -1709,7 +1844,7 @@
       </c>
     </row>
     <row r="23" spans="2:3">
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C23" t="s">
@@ -1717,7 +1852,7 @@
       </c>
     </row>
     <row r="24" spans="2:3">
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C24" t="s">
@@ -1725,7 +1860,7 @@
       </c>
     </row>
     <row r="25" spans="2:3">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C25" t="s">
@@ -1733,7 +1868,7 @@
       </c>
     </row>
     <row r="26" spans="2:3">
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C26" t="s">
@@ -1741,7 +1876,7 @@
       </c>
     </row>
     <row r="27" spans="2:3">
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C27" t="s">
@@ -1749,7 +1884,7 @@
       </c>
     </row>
     <row r="28" spans="2:3">
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C28" t="s">
@@ -1757,7 +1892,7 @@
       </c>
     </row>
     <row r="29" spans="2:3">
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C29" t="s">
@@ -1765,7 +1900,7 @@
       </c>
     </row>
     <row r="30" spans="2:3">
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C30" t="s">
@@ -1773,7 +1908,7 @@
       </c>
     </row>
     <row r="31" spans="2:3">
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C31" t="s">
@@ -1781,7 +1916,7 @@
       </c>
     </row>
     <row r="32" spans="2:3">
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
@@ -1789,7 +1924,7 @@
       </c>
     </row>
     <row r="33" spans="2:3">
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C33" t="s">
@@ -1797,7 +1932,7 @@
       </c>
     </row>
     <row r="34" spans="2:3">
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C34" t="s">
@@ -1805,7 +1940,7 @@
       </c>
     </row>
     <row r="35" spans="2:3">
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C35" t="s">
@@ -1813,7 +1948,7 @@
       </c>
     </row>
     <row r="36" spans="2:3">
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C36" t="s">
@@ -1821,7 +1956,7 @@
       </c>
     </row>
     <row r="37" spans="2:3">
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C37" t="s">
@@ -1829,7 +1964,7 @@
       </c>
     </row>
     <row r="38" spans="2:3">
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C38" t="s">
@@ -1837,7 +1972,7 @@
       </c>
     </row>
     <row r="39" spans="2:3">
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C39" t="s">
@@ -1845,7 +1980,7 @@
       </c>
     </row>
     <row r="40" spans="2:3">
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C40" t="s">
@@ -1853,7 +1988,7 @@
       </c>
     </row>
     <row r="41" spans="2:3">
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C41" t="s">
@@ -1861,7 +1996,7 @@
       </c>
     </row>
     <row r="42" spans="2:3">
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C42" t="s">
@@ -1869,7 +2004,7 @@
       </c>
     </row>
     <row r="43" spans="2:3">
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C43" t="s">
@@ -1877,7 +2012,7 @@
       </c>
     </row>
     <row r="44" spans="2:3">
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C44" t="s">
@@ -1885,7 +2020,7 @@
       </c>
     </row>
     <row r="45" spans="2:3">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C45" t="s">
@@ -1893,7 +2028,7 @@
       </c>
     </row>
     <row r="46" spans="2:3">
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C46" t="s">
@@ -1901,7 +2036,7 @@
       </c>
     </row>
     <row r="47" spans="2:3">
-      <c r="B47" s="2" t="s">
+      <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C47" t="s">
@@ -1909,7 +2044,7 @@
       </c>
     </row>
     <row r="48" spans="2:3">
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C48" t="s">
@@ -1917,7 +2052,7 @@
       </c>
     </row>
     <row r="49" spans="2:3">
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C49" t="s">
@@ -1925,7 +2060,7 @@
       </c>
     </row>
     <row r="50" spans="2:3">
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C50" t="s">
@@ -1933,7 +2068,7 @@
       </c>
     </row>
     <row r="51" spans="2:3">
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C51" t="s">
@@ -1941,7 +2076,7 @@
       </c>
     </row>
     <row r="52" spans="2:3">
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C52" t="s">
@@ -1949,7 +2084,7 @@
       </c>
     </row>
     <row r="53" spans="2:3">
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C53" t="s">
@@ -1957,7 +2092,7 @@
       </c>
     </row>
     <row r="54" spans="2:3">
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C54" t="s">
@@ -1965,7 +2100,7 @@
       </c>
     </row>
     <row r="55" spans="2:3">
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C55" t="s">
@@ -1973,7 +2108,7 @@
       </c>
     </row>
     <row r="56" spans="2:3">
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C56" t="s">
@@ -1981,7 +2116,7 @@
       </c>
     </row>
     <row r="57" spans="2:3">
-      <c r="B57" s="2" t="s">
+      <c r="B57" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C57" t="s">
@@ -1989,7 +2124,7 @@
       </c>
     </row>
     <row r="58" spans="2:3">
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C58" t="s">
@@ -1997,7 +2132,7 @@
       </c>
     </row>
     <row r="59" spans="2:3">
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C59" t="s">
@@ -2005,7 +2140,7 @@
       </c>
     </row>
     <row r="60" spans="2:3">
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C60" t="s">
@@ -2013,7 +2148,7 @@
       </c>
     </row>
     <row r="61" spans="2:3">
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C61" t="s">
@@ -2021,7 +2156,7 @@
       </c>
     </row>
     <row r="62" spans="2:3">
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C62" t="s">
@@ -2029,7 +2164,7 @@
       </c>
     </row>
     <row r="63" spans="2:3">
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C63" t="s">
@@ -2037,7 +2172,7 @@
       </c>
     </row>
     <row r="64" spans="2:3">
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C64" t="s">
@@ -2045,7 +2180,7 @@
       </c>
     </row>
     <row r="65" spans="2:3">
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C65" t="s">
@@ -2053,7 +2188,7 @@
       </c>
     </row>
     <row r="66" spans="2:3">
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C66" t="s">
@@ -2061,7 +2196,7 @@
       </c>
     </row>
     <row r="67" spans="2:3">
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C67" t="s">
@@ -2069,7 +2204,7 @@
       </c>
     </row>
     <row r="68" spans="2:3">
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C68" t="s">
@@ -2077,7 +2212,7 @@
       </c>
     </row>
     <row r="69" spans="2:3">
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C69" t="s">
@@ -2085,7 +2220,7 @@
       </c>
     </row>
     <row r="70" spans="2:3">
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C70" t="s">
@@ -2093,7 +2228,7 @@
       </c>
     </row>
     <row r="71" spans="2:3">
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C71" t="s">
@@ -2101,7 +2236,7 @@
       </c>
     </row>
     <row r="72" spans="2:3">
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C72" t="s">
@@ -2109,7 +2244,7 @@
       </c>
     </row>
     <row r="73" spans="2:3">
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="1" t="s">
         <v>143</v>
       </c>
       <c r="C73" t="s">
@@ -2117,7 +2252,7 @@
       </c>
     </row>
     <row r="74" spans="2:3">
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="1" t="s">
         <v>145</v>
       </c>
       <c r="C74" t="s">
@@ -2125,7 +2260,7 @@
       </c>
     </row>
     <row r="75" spans="2:3">
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="1" t="s">
         <v>147</v>
       </c>
       <c r="C75" t="s">
@@ -2133,7 +2268,7 @@
       </c>
     </row>
     <row r="76" spans="2:3">
-      <c r="B76" s="2" t="s">
+      <c r="B76" s="1" t="s">
         <v>149</v>
       </c>
       <c r="C76" t="s">
@@ -2141,7 +2276,7 @@
       </c>
     </row>
     <row r="77" spans="2:3">
-      <c r="B77" s="2" t="s">
+      <c r="B77" s="1" t="s">
         <v>151</v>
       </c>
       <c r="C77" t="s">
@@ -2149,7 +2284,7 @@
       </c>
     </row>
     <row r="78" spans="2:3">
-      <c r="B78" s="2" t="s">
+      <c r="B78" s="1" t="s">
         <v>153</v>
       </c>
       <c r="C78" t="s">
@@ -2157,7 +2292,7 @@
       </c>
     </row>
     <row r="79" spans="2:3">
-      <c r="B79" s="2" t="s">
+      <c r="B79" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C79" t="s">
@@ -2165,7 +2300,7 @@
       </c>
     </row>
     <row r="80" spans="2:3">
-      <c r="B80" s="2" t="s">
+      <c r="B80" s="1" t="s">
         <v>157</v>
       </c>
       <c r="C80" t="s">
@@ -2274,6 +2409,190 @@
       </c>
       <c r="C93" t="s">
         <v>184</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3">
+      <c r="B94" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C94" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3">
+      <c r="B95" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C95" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3">
+      <c r="B96" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C96" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3">
+      <c r="B97" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C97" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3">
+      <c r="B98" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3">
+      <c r="B99" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C99" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3">
+      <c r="B100" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C100" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3">
+      <c r="B101" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C101" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3">
+      <c r="B102" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C102" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3">
+      <c r="B103" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C103" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3">
+      <c r="B104" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3">
+      <c r="B105" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C105" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3">
+      <c r="B106" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C106" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3">
+      <c r="B107" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C107" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3">
+      <c r="B108" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3">
+      <c r="B109" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C109" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3">
+      <c r="B110" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C110" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3">
+      <c r="B111" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C111" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3">
+      <c r="B112" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C112" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3">
+      <c r="B113" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C113" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3">
+      <c r="B114" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C114" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3">
+      <c r="B115" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C115" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3">
+      <c r="B116" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C116" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/listen.xlsx
+++ b/listen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238">
   <si>
     <t>fundamentel</t>
   </si>
@@ -707,6 +707,27 @@
   </si>
   <si>
     <t>脆弱的</t>
+  </si>
+  <si>
+    <t>synthesize</t>
+  </si>
+  <si>
+    <t>合成</t>
+  </si>
+  <si>
+    <t>spontaneously</t>
+  </si>
+  <si>
+    <t>自发地</t>
+  </si>
+  <si>
+    <t>irony</t>
+  </si>
+  <si>
+    <t>poverty</t>
+  </si>
+  <si>
+    <t>贫穷</t>
   </si>
 </sst>
 </file>
@@ -1655,10 +1676,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:C116"/>
+  <dimension ref="B1:C120"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="22" outlineLevelCol="2"/>
@@ -2595,6 +2616,38 @@
         <v>230</v>
       </c>
     </row>
+    <row r="117" spans="2:3">
+      <c r="B117" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C117" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3">
+      <c r="B118" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C118" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3">
+      <c r="B119" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="C119" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3">
+      <c r="B120" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C120" t="s">
+        <v>237</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/listen.xlsx
+++ b/listen.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289">
   <si>
     <t>fundamentel</t>
   </si>
@@ -728,6 +728,159 @@
   </si>
   <si>
     <t>贫穷</t>
+  </si>
+  <si>
+    <t>grave</t>
+  </si>
+  <si>
+    <t>坟墓</t>
+  </si>
+  <si>
+    <t>tomb</t>
+  </si>
+  <si>
+    <t>erect</t>
+  </si>
+  <si>
+    <t>建立 建造 竖立</t>
+  </si>
+  <si>
+    <t>chamber</t>
+  </si>
+  <si>
+    <t>卧室 洞穴</t>
+  </si>
+  <si>
+    <t>miraculous</t>
+  </si>
+  <si>
+    <t>奇迹般的</t>
+  </si>
+  <si>
+    <t>echoes</t>
+  </si>
+  <si>
+    <t>回声</t>
+  </si>
+  <si>
+    <t>spirit</t>
+  </si>
+  <si>
+    <t>精神</t>
+  </si>
+  <si>
+    <t>chorus</t>
+  </si>
+  <si>
+    <t>合唱队</t>
+  </si>
+  <si>
+    <t>choir</t>
+  </si>
+  <si>
+    <t>bounce</t>
+  </si>
+  <si>
+    <t>弹跳</t>
+  </si>
+  <si>
+    <t>intriguing</t>
+  </si>
+  <si>
+    <t>引起兴趣的，interesting</t>
+  </si>
+  <si>
+    <t>deafening</t>
+  </si>
+  <si>
+    <t>震耳欲聋的，deafen使变聋</t>
+  </si>
+  <si>
+    <t>acoustic</t>
+  </si>
+  <si>
+    <t>声学的</t>
+  </si>
+  <si>
+    <t>awe</t>
+  </si>
+  <si>
+    <t>敬畏</t>
+  </si>
+  <si>
+    <t>engender</t>
+  </si>
+  <si>
+    <t>导致 造成 引起</t>
+  </si>
+  <si>
+    <t>resonance</t>
+  </si>
+  <si>
+    <t>共鸣</t>
+  </si>
+  <si>
+    <t>agitate</t>
+  </si>
+  <si>
+    <t>搅动 使不安</t>
+  </si>
+  <si>
+    <t>crucial</t>
+  </si>
+  <si>
+    <t>至关重要的</t>
+  </si>
+  <si>
+    <t>expressive</t>
+  </si>
+  <si>
+    <t>栩栩如生的 有表现力的</t>
+  </si>
+  <si>
+    <t>contemplative</t>
+  </si>
+  <si>
+    <t>沉思</t>
+  </si>
+  <si>
+    <t>insightful</t>
+  </si>
+  <si>
+    <t>偶洞察力的</t>
+  </si>
+  <si>
+    <t>interpretation</t>
+  </si>
+  <si>
+    <t>理解说明 解释</t>
+  </si>
+  <si>
+    <t>detour</t>
+  </si>
+  <si>
+    <t>绕行 绕道</t>
+  </si>
+  <si>
+    <t>fraction</t>
+  </si>
+  <si>
+    <t>部分 小部分</t>
+  </si>
+  <si>
+    <t>anchor</t>
+  </si>
+  <si>
+    <t>锚 固定</t>
+  </si>
+  <si>
+    <t>plausible</t>
+  </si>
+  <si>
+    <t>可能的 貌似真实的</t>
+  </si>
+  <si>
+    <t>朗诵 独奏会</t>
   </si>
 </sst>
 </file>
@@ -1676,10 +1829,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:C120"/>
+  <dimension ref="B1:C147"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="C147" sqref="C147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33333333333333" defaultRowHeight="22" outlineLevelCol="2"/>
@@ -2648,6 +2801,222 @@
         <v>237</v>
       </c>
     </row>
+    <row r="121" spans="2:3">
+      <c r="B121" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3">
+      <c r="B122" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C122" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3">
+      <c r="B123" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C123" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3">
+      <c r="B124" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3">
+      <c r="B125" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C125" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3">
+      <c r="B126" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C126" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3">
+      <c r="B127" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C127" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3">
+      <c r="B128" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C128" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3">
+      <c r="B129" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C129" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3">
+      <c r="B130" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C130" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3">
+      <c r="B131" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C131" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3">
+      <c r="B132" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C132" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3">
+      <c r="B133" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C133" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3">
+      <c r="B134" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C134" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3">
+      <c r="B135" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C135" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3">
+      <c r="B136" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C136" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3">
+      <c r="B137" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C137" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3">
+      <c r="B138" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C138" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3">
+      <c r="B139" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C139" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3">
+      <c r="B140" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C140" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3">
+      <c r="B141" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C141" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3">
+      <c r="B142" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C142" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3">
+      <c r="B143" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C143" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3">
+      <c r="B144" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C144" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3">
+      <c r="B145" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C145" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3">
+      <c r="B146" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C146" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3">
+      <c r="B147" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C147" t="s">
+        <v>288</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
